--- a/statistiche/RandomForestCounterfactuals/GK.xlsx
+++ b/statistiche/RandomForestCounterfactuals/GK.xlsx
@@ -38,12 +38,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FAF5E9"/>
+        <fgColor rgb="00E9ECEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
+        <fgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T106"/>
+  <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,77 +458,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Admission IC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Release B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Release D</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>ER Triage</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Admission IC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Leucocytes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ER Sepsis Triage</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IV Antibiotics</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IV Liquid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Release A</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>IV Antibiotics</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Leucocytes</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Release B</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LacticAcid</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Release C</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Admission NC</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ER Registration</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>IV Liquid</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Release C</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CRP</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>LacticAcid</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ER Sepsis Triage</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Admission NC</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Release D</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>1</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
@@ -895,16 +895,16 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -934,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>0</v>
@@ -1001,13 +1001,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -1044,16 +1044,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2" t="n">
         <v>1</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1108,28 +1108,28 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>1</v>
@@ -1196,22 +1196,22 @@
         <v>0</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
@@ -1233,16 +1233,16 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
@@ -1269,13 +1269,13 @@
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
@@ -1312,16 +1312,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>2</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2" t="n">
         <v>1</v>
@@ -1330,22 +1330,22 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>2</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2" t="n">
         <v>1</v>
@@ -1400,22 +1400,22 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>1</v>
@@ -1470,22 +1470,22 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>1</v>
@@ -1540,22 +1540,22 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1604,22 +1604,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>1</v>
@@ -1674,22 +1674,22 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
@@ -1711,19 +1711,19 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1738,22 +1738,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0</v>
@@ -1796,7 +1796,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>1</v>
@@ -1808,22 +1808,22 @@
         <v>0</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
@@ -1845,16 +1845,16 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -1872,22 +1872,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>0</v>
@@ -1930,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>1</v>
@@ -1942,22 +1942,22 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1991,10 +1991,10 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2003,25 +2003,25 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>1</v>
@@ -2076,22 +2076,22 @@
         <v>0</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2137,25 +2137,25 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>16</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>1</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2259,37 +2259,37 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
         <v>4</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>6</v>
-      </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>5</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>1</v>
@@ -2344,22 +2344,22 @@
         <v>0</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2393,37 +2393,37 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>18</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>6</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>1</v>
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
@@ -2515,22 +2515,22 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
         <v>6</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2542,22 +2542,22 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>6</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>1</v>
@@ -2612,22 +2612,22 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="2" t="n">
         <v>5</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
@@ -2649,10 +2649,10 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2664,10 +2664,10 @@
         <v>6</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2676,22 +2676,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>7</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>1</v>
@@ -2746,22 +2746,22 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="2" t="n">
         <v>5</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
@@ -2783,10 +2783,10 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>7</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -2810,22 +2810,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>2</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>21</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         <v>8</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>1</v>
@@ -2880,22 +2880,22 @@
         <v>0</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="2" t="n">
         <v>5</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>22</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>9</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="2" t="n">
         <v>1</v>
@@ -2950,22 +2950,22 @@
         <v>0</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="2" t="n">
         <v>5</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>23</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>0</v>
@@ -3008,7 +3008,7 @@
         <v>10</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="2" t="n">
         <v>1</v>
@@ -3020,22 +3020,22 @@
         <v>0</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="2" t="n">
         <v>5</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>11</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>1</v>
@@ -3090,22 +3090,22 @@
         <v>0</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="2" t="n">
         <v>5</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>25</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>0</v>
@@ -3148,7 +3148,7 @@
         <v>11</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="2" t="n">
         <v>1</v>
@@ -3160,22 +3160,22 @@
         <v>0</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="2" t="n">
         <v>6</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>26</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>12</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="2" t="n">
         <v>1</v>
@@ -3230,22 +3230,22 @@
         <v>0</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="2" t="n">
         <v>6</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         <v>27</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>13</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="2" t="n">
         <v>1</v>
@@ -3300,22 +3300,22 @@
         <v>0</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="2" t="n">
         <v>6</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>28</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>0</v>
@@ -3358,7 +3358,7 @@
         <v>14</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>1</v>
@@ -3370,22 +3370,22 @@
         <v>0</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="2" t="n">
         <v>6</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>29</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>0</v>
@@ -3428,7 +3428,7 @@
         <v>15</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>1</v>
@@ -3440,22 +3440,22 @@
         <v>0</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="2" t="n">
         <v>6</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>30</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>0</v>
@@ -3498,7 +3498,7 @@
         <v>16</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="2" t="n">
         <v>1</v>
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="2" t="n">
         <v>6</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>31</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>17</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>1</v>
@@ -3580,22 +3580,22 @@
         <v>0</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="2" t="n">
         <v>6</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="2" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         <v>32</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>17</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="2" t="n">
         <v>1</v>
@@ -3650,22 +3650,22 @@
         <v>0</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="2" t="n">
         <v>7</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="2" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>33</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>17</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="2" t="n">
         <v>1</v>
@@ -3720,22 +3720,22 @@
         <v>0</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="2" t="n">
         <v>8</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="2" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>34</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>0</v>
@@ -3778,7 +3778,7 @@
         <v>18</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="2" t="n">
         <v>1</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="2" t="n">
         <v>8</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="2" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>35</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>19</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="2" t="n">
         <v>1</v>
@@ -3860,22 +3860,22 @@
         <v>0</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="2" t="n">
         <v>8</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="2" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>36</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>19</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="2" t="n">
         <v>1</v>
@@ -3930,22 +3930,22 @@
         <v>0</v>
       </c>
       <c r="L51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="2" t="n">
         <v>9</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="2" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>37</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>20</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="2" t="n">
         <v>1</v>
@@ -4000,22 +4000,22 @@
         <v>0</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="2" t="n">
         <v>9</v>
       </c>
       <c r="N52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="2" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>38</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>20</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="2" t="n">
         <v>1</v>
@@ -4070,22 +4070,22 @@
         <v>0</v>
       </c>
       <c r="L53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" s="2" t="n">
         <v>10</v>
       </c>
       <c r="N53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="2" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>39</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>0</v>
@@ -4128,7 +4128,7 @@
         <v>20</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="2" t="n">
         <v>1</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="L54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" s="2" t="n">
         <v>11</v>
       </c>
       <c r="N54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" s="2" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>40</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>21</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="2" t="n">
         <v>1</v>
@@ -4210,22 +4210,22 @@
         <v>0</v>
       </c>
       <c r="L55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" s="2" t="n">
         <v>11</v>
       </c>
       <c r="N55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="2" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>0</v>
@@ -4268,7 +4268,7 @@
         <v>22</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="2" t="n">
         <v>1</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="L56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" s="2" t="n">
         <v>11</v>
       </c>
       <c r="N56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="2" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>42</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>0</v>
@@ -4338,7 +4338,7 @@
         <v>22</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="2" t="n">
         <v>1</v>
@@ -4350,22 +4350,22 @@
         <v>0</v>
       </c>
       <c r="L57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="2" t="n">
         <v>12</v>
       </c>
       <c r="N57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="2" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
         <v>43</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>0</v>
@@ -4408,7 +4408,7 @@
         <v>23</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" s="2" t="n">
         <v>1</v>
@@ -4420,22 +4420,22 @@
         <v>0</v>
       </c>
       <c r="L58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" s="2" t="n">
         <v>12</v>
       </c>
       <c r="N58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="2" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" s="2" t="n">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>24</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="2" t="n">
         <v>1</v>
@@ -4490,22 +4490,22 @@
         <v>0</v>
       </c>
       <c r="L59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" s="2" t="n">
         <v>12</v>
       </c>
       <c r="N59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="2" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>45</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" s="2" t="n">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>24</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" s="2" t="n">
         <v>1</v>
@@ -4560,22 +4560,22 @@
         <v>0</v>
       </c>
       <c r="L60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="2" t="n">
         <v>13</v>
       </c>
       <c r="N60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" s="2" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>46</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="2" t="n">
         <v>0</v>
@@ -4618,7 +4618,7 @@
         <v>25</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="2" t="n">
         <v>1</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="L61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" s="2" t="n">
         <v>13</v>
       </c>
       <c r="N61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="2" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>47</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="2" t="n">
         <v>0</v>
@@ -4688,7 +4688,7 @@
         <v>25</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="2" t="n">
         <v>1</v>
@@ -4700,22 +4700,22 @@
         <v>0</v>
       </c>
       <c r="L62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" s="2" t="n">
         <v>14</v>
       </c>
       <c r="N62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="2" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>48</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="2" t="n">
         <v>0</v>
@@ -4758,7 +4758,7 @@
         <v>26</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="2" t="n">
         <v>1</v>
@@ -4770,22 +4770,22 @@
         <v>0</v>
       </c>
       <c r="L63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="2" t="n">
         <v>14</v>
       </c>
       <c r="N63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P63" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="2" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>49</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>0</v>
@@ -4828,7 +4828,7 @@
         <v>26</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="2" t="n">
         <v>1</v>
@@ -4840,31 +4840,31 @@
         <v>0</v>
       </c>
       <c r="L64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" s="2" t="n">
         <v>15</v>
       </c>
       <c r="N64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" s="2" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
       </c>
-      <c r="S64" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="S64" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="T64" s="2" t="inlineStr">
@@ -4874,66 +4874,72 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" t="n">
-        <v>29</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="N65" t="n">
-        <v>1</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1</v>
-      </c>
-      <c r="P65" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0</v>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>Counterfactual</t>
+      <c r="N65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S65" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T65" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
         </is>
       </c>
     </row>
@@ -4944,10 +4950,10 @@
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" s="2" t="n">
         <v>0</v>
@@ -4959,10 +4965,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="2" t="n">
         <v>1</v>
@@ -4974,22 +4980,22 @@
         <v>0</v>
       </c>
       <c r="L66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" s="2" t="n">
         <v>15</v>
       </c>
       <c r="N66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" s="2" t="inlineStr">
         <is>
@@ -5014,10 +5020,10 @@
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" s="2" t="n">
         <v>0</v>
@@ -5029,10 +5035,10 @@
         <v>1</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="2" t="n">
         <v>1</v>
@@ -5044,22 +5050,22 @@
         <v>0</v>
       </c>
       <c r="L67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" s="2" t="n">
         <v>15</v>
       </c>
       <c r="N67" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67" s="2" t="inlineStr">
         <is>
@@ -5084,10 +5090,10 @@
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>0</v>
@@ -5102,7 +5108,7 @@
         <v>29</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" s="2" t="n">
         <v>1</v>
@@ -5114,22 +5120,22 @@
         <v>0</v>
       </c>
       <c r="L68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" s="2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P68" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" s="2" t="inlineStr">
         <is>
@@ -5154,10 +5160,10 @@
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" s="2" t="n">
         <v>0</v>
@@ -5172,7 +5178,7 @@
         <v>29</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="2" t="n">
         <v>1</v>
@@ -5184,22 +5190,22 @@
         <v>0</v>
       </c>
       <c r="L69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" s="2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" s="2" t="inlineStr">
         <is>
@@ -5224,10 +5230,10 @@
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>0</v>
@@ -5239,10 +5245,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="2" t="n">
         <v>1</v>
@@ -5254,22 +5260,22 @@
         <v>0</v>
       </c>
       <c r="L70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" s="2" t="n">
         <v>17</v>
       </c>
       <c r="N70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P70" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" s="2" t="inlineStr">
         <is>
@@ -5294,10 +5300,10 @@
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" s="2" t="n">
         <v>0</v>
@@ -5312,7 +5318,7 @@
         <v>30</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="2" t="n">
         <v>1</v>
@@ -5324,22 +5330,22 @@
         <v>0</v>
       </c>
       <c r="L71" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" s="2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N71" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P71" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q71" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" s="2" t="inlineStr">
         <is>
@@ -5364,10 +5370,10 @@
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" s="2" t="n">
         <v>0</v>
@@ -5379,10 +5385,10 @@
         <v>1</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" s="2" t="n">
         <v>1</v>
@@ -5394,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="L72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" s="2" t="n">
         <v>18</v>
       </c>
       <c r="N72" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P72" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q72" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72" s="2" t="inlineStr">
         <is>
@@ -5434,10 +5440,10 @@
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" s="2" t="n">
         <v>0</v>
@@ -5449,10 +5455,10 @@
         <v>1</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" s="2" t="n">
         <v>1</v>
@@ -5464,22 +5470,22 @@
         <v>0</v>
       </c>
       <c r="L73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" s="2" t="n">
         <v>18</v>
       </c>
       <c r="N73" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P73" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q73" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" s="2" t="inlineStr">
         <is>
@@ -5504,10 +5510,10 @@
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" s="2" t="n">
         <v>0</v>
@@ -5522,7 +5528,7 @@
         <v>32</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="2" t="n">
         <v>1</v>
@@ -5534,22 +5540,22 @@
         <v>0</v>
       </c>
       <c r="L74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" s="2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N74" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P74" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q74" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="2" t="inlineStr">
         <is>
@@ -5574,10 +5580,10 @@
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0</v>
@@ -5589,10 +5595,10 @@
         <v>1</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="2" t="n">
         <v>1</v>
@@ -5604,22 +5610,22 @@
         <v>0</v>
       </c>
       <c r="L75" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" s="2" t="n">
         <v>19</v>
       </c>
       <c r="N75" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P75" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q75" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R75" s="2" t="inlineStr">
         <is>
@@ -5644,7 +5650,7 @@
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1</v>
@@ -5662,7 +5668,7 @@
         <v>33</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" s="2" t="n">
         <v>1</v>
@@ -5674,22 +5680,22 @@
         <v>0</v>
       </c>
       <c r="L76" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" s="2" t="n">
         <v>19</v>
       </c>
       <c r="N76" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O76" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P76" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q76" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76" s="2" t="inlineStr">
         <is>
@@ -5714,13 +5720,13 @@
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>0</v>
@@ -5729,10 +5735,10 @@
         <v>1</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H77" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" s="2" t="n">
         <v>1</v>
@@ -5744,22 +5750,22 @@
         <v>0</v>
       </c>
       <c r="L77" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" s="2" t="n">
         <v>19</v>
       </c>
       <c r="N77" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P77" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q77" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77" s="2" t="inlineStr">
         <is>
@@ -5784,13 +5790,13 @@
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" s="2" t="n">
         <v>0</v>
@@ -5802,7 +5808,7 @@
         <v>34</v>
       </c>
       <c r="H78" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" s="2" t="n">
         <v>1</v>
@@ -5814,22 +5820,22 @@
         <v>0</v>
       </c>
       <c r="L78" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78" s="2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N78" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P78" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q78" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" s="2" t="inlineStr">
         <is>
@@ -5854,13 +5860,13 @@
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" s="2" t="n">
         <v>0</v>
@@ -5872,7 +5878,7 @@
         <v>34</v>
       </c>
       <c r="H79" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" s="2" t="n">
         <v>1</v>
@@ -5884,22 +5890,22 @@
         <v>0</v>
       </c>
       <c r="L79" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M79" s="2" t="n">
         <v>20</v>
       </c>
       <c r="N79" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P79" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q79" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79" s="2" t="inlineStr">
         <is>
@@ -5924,13 +5930,13 @@
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>0</v>
@@ -5942,7 +5948,7 @@
         <v>34</v>
       </c>
       <c r="H80" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" s="2" t="n">
         <v>1</v>
@@ -5954,22 +5960,22 @@
         <v>0</v>
       </c>
       <c r="L80" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M80" s="2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N80" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O80" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P80" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q80" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R80" s="2" t="inlineStr">
         <is>
@@ -5994,13 +6000,13 @@
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" s="2" t="n">
         <v>0</v>
@@ -6012,7 +6018,7 @@
         <v>34</v>
       </c>
       <c r="H81" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" s="2" t="n">
         <v>1</v>
@@ -6024,31 +6030,31 @@
         <v>0</v>
       </c>
       <c r="L81" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M81" s="2" t="n">
         <v>21</v>
       </c>
       <c r="N81" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O81" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P81" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q81" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81" s="2" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
       </c>
-      <c r="S81" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
+      <c r="S81" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
         </is>
       </c>
       <c r="T81" s="2" t="inlineStr">
@@ -6058,340 +6064,334 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>GK</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="C82" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D82" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E82" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" s="2" t="n">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="n">
         <v>34</v>
       </c>
-      <c r="H82" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" s="2" t="n">
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>3</v>
+      </c>
+      <c r="M82" t="n">
+        <v>23</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>2</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Counterfactual</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M83" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="N82" s="2" t="n">
+      <c r="N83" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S83" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
+        </is>
+      </c>
+      <c r="T83" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>35</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
         <v>3</v>
       </c>
-      <c r="O82" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P82" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q82" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R82" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S82" s="3" t="inlineStr">
+      <c r="M84" t="n">
+        <v>21</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>Counterfactual</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M85" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="N85" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q85" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S85" s="3" t="inlineStr">
         <is>
           <t>deviant</t>
         </is>
       </c>
-      <c r="T82" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="n">
-        <v>1</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" t="n">
-        <v>9</v>
-      </c>
-      <c r="G83" t="n">
-        <v>34</v>
-      </c>
-      <c r="H83" t="n">
+      <c r="T85" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>35</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>4</v>
+      </c>
+      <c r="M86" t="n">
+        <v>28</v>
+      </c>
+      <c r="N86" t="n">
         <v>5</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>21</v>
-      </c>
-      <c r="N83" t="n">
-        <v>3</v>
-      </c>
-      <c r="O83" t="n">
-        <v>1</v>
-      </c>
-      <c r="P83" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0</v>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr">
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
         <is>
           <t>Counterfactual</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="inlineStr">
-        <is>
-          <t>GK</t>
-        </is>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="C84" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D84" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E84" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="H84" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K84" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="N84" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O84" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P84" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q84" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R84" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S84" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
-        </is>
-      </c>
-      <c r="T84" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" t="n">
-        <v>35</v>
-      </c>
-      <c r="H85" t="n">
-        <v>3</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" t="n">
-        <v>21</v>
-      </c>
-      <c r="N85" t="n">
-        <v>3</v>
-      </c>
-      <c r="O85" t="n">
-        <v>1</v>
-      </c>
-      <c r="P85" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0</v>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>Counterfactual</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="inlineStr">
-        <is>
-          <t>GK</t>
-        </is>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="C86" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D86" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="H86" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K86" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M86" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="N86" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O86" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P86" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q86" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R86" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S86" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T86" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
         </is>
       </c>
     </row>
@@ -6408,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" s="2" t="n">
         <v>0</v>
@@ -6420,7 +6420,7 @@
         <v>36</v>
       </c>
       <c r="H87" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" s="2" t="n">
         <v>1</v>
@@ -6432,106 +6432,100 @@
         <v>0</v>
       </c>
       <c r="L87" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M87" s="2" t="n">
         <v>21</v>
       </c>
       <c r="N87" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S87" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
+        </is>
+      </c>
+      <c r="T87" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="n">
+        <v>36</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
         <v>4</v>
       </c>
-      <c r="O87" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P87" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q87" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R87" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S87" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T87" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="inlineStr">
-        <is>
-          <t>GK</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="C88" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D88" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E88" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="H88" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K88" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="N88" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O88" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P88" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q88" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R88" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S88" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T88" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
+      <c r="M88" t="n">
+        <v>21</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>13</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>Counterfactual</t>
         </is>
       </c>
     </row>
@@ -6542,13 +6536,13 @@
         </is>
       </c>
       <c r="B89" s="2" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" s="2" t="n">
         <v>0</v>
@@ -6557,10 +6551,10 @@
         <v>1</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H89" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" s="2" t="n">
         <v>1</v>
@@ -6572,106 +6566,100 @@
         <v>0</v>
       </c>
       <c r="L89" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M89" s="2" t="n">
         <v>22</v>
       </c>
       <c r="N89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S89" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
+        </is>
+      </c>
+      <c r="T89" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="n">
+        <v>36</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="n">
         <v>4</v>
       </c>
-      <c r="O89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P89" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q89" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R89" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S89" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T89" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="inlineStr">
-        <is>
-          <t>GK</t>
-        </is>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="C90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E90" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="H90" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K90" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M90" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="N90" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P90" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q90" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R90" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S90" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T90" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
+      <c r="M90" t="n">
+        <v>22</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>Counterfactual</t>
         </is>
       </c>
     </row>
@@ -6682,13 +6670,13 @@
         </is>
       </c>
       <c r="B91" s="2" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" s="2" t="n">
         <v>0</v>
@@ -6700,7 +6688,7 @@
         <v>37</v>
       </c>
       <c r="H91" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" s="2" t="n">
         <v>1</v>
@@ -6712,31 +6700,31 @@
         <v>0</v>
       </c>
       <c r="L91" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M91" s="2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N91" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O91" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P91" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q91" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R91" s="2" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
       </c>
-      <c r="S91" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
+      <c r="S91" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
         </is>
       </c>
       <c r="T91" s="2" t="inlineStr">
@@ -6746,72 +6734,66 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="inlineStr">
-        <is>
-          <t>GK</t>
-        </is>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="C92" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D92" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E92" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" s="2" t="n">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
         <v>37</v>
       </c>
-      <c r="H92" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K92" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M92" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="N92" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="O92" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P92" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q92" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R92" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S92" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T92" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>4</v>
+      </c>
+      <c r="M92" t="n">
+        <v>27</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>Counterfactual</t>
         </is>
       </c>
     </row>
@@ -6822,13 +6804,13 @@
         </is>
       </c>
       <c r="B93" s="2" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" s="2" t="n">
         <v>0</v>
@@ -6837,10 +6819,10 @@
         <v>1</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H93" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" s="2" t="n">
         <v>1</v>
@@ -6852,31 +6834,31 @@
         <v>0</v>
       </c>
       <c r="L93" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M93" s="2" t="n">
         <v>23</v>
       </c>
       <c r="N93" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O93" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P93" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q93" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R93" s="2" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
       </c>
-      <c r="S93" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
+      <c r="S93" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
         </is>
       </c>
       <c r="T93" s="2" t="inlineStr">
@@ -6886,72 +6868,66 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="inlineStr">
-        <is>
-          <t>GK</t>
-        </is>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="C94" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D94" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E94" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="H94" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K94" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" s="2" t="n">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="n">
+        <v>37</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>4</v>
+      </c>
+      <c r="M94" t="n">
         <v>23</v>
       </c>
-      <c r="N94" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="O94" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P94" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q94" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R94" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S94" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T94" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>6</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>Counterfactual</t>
         </is>
       </c>
     </row>
@@ -6962,13 +6938,13 @@
         </is>
       </c>
       <c r="B95" s="2" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" s="2" t="n">
         <v>0</v>
@@ -6977,10 +6953,10 @@
         <v>1</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H95" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" s="2" t="n">
         <v>1</v>
@@ -6992,106 +6968,100 @@
         <v>0</v>
       </c>
       <c r="L95" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M95" s="2" t="n">
         <v>23</v>
       </c>
       <c r="N95" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q95" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R95" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S95" s="3" t="inlineStr">
+        <is>
+          <t>deviant</t>
+        </is>
+      </c>
+      <c r="T95" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>7</v>
+      </c>
+      <c r="E96" t="n">
+        <v>7</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>37</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
         <v>5</v>
       </c>
-      <c r="O95" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P95" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q95" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R95" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S95" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T95" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="inlineStr">
-        <is>
-          <t>GK</t>
-        </is>
-      </c>
-      <c r="B96" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="C96" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D96" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G96" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="H96" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K96" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M96" s="2" t="n">
+      <c r="M96" t="n">
         <v>23</v>
       </c>
-      <c r="N96" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="O96" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P96" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q96" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R96" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S96" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T96" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1</v>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>Counterfactual</t>
         </is>
       </c>
     </row>
@@ -7102,13 +7072,13 @@
         </is>
       </c>
       <c r="B97" s="2" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" s="2" t="n">
         <v>0</v>
@@ -7117,10 +7087,10 @@
         <v>1</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H97" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" s="2" t="n">
         <v>1</v>
@@ -7132,22 +7102,22 @@
         <v>0</v>
       </c>
       <c r="L97" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M97" s="2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N97" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O97" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P97" s="2" t="n">
         <v>3</v>
       </c>
       <c r="Q97" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R97" s="2" t="inlineStr">
         <is>
@@ -7172,13 +7142,13 @@
         </is>
       </c>
       <c r="B98" s="2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" s="2" t="n">
         <v>0</v>
@@ -7187,10 +7157,10 @@
         <v>1</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H98" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" s="2" t="n">
         <v>1</v>
@@ -7202,22 +7172,22 @@
         <v>0</v>
       </c>
       <c r="L98" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M98" s="2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N98" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O98" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P98" s="2" t="n">
         <v>3</v>
       </c>
       <c r="Q98" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R98" s="2" t="inlineStr">
         <is>
@@ -7242,13 +7212,13 @@
         </is>
       </c>
       <c r="B99" s="2" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" s="2" t="n">
         <v>0</v>
@@ -7257,10 +7227,10 @@
         <v>1</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H99" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" s="2" t="n">
         <v>1</v>
@@ -7272,22 +7242,22 @@
         <v>0</v>
       </c>
       <c r="L99" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M99" s="2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N99" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O99" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P99" s="2" t="n">
         <v>3</v>
       </c>
       <c r="Q99" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R99" s="2" t="inlineStr">
         <is>
@@ -7312,13 +7282,13 @@
         </is>
       </c>
       <c r="B100" s="2" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" s="2" t="n">
         <v>0</v>
@@ -7327,10 +7297,10 @@
         <v>1</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H100" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" s="2" t="n">
         <v>1</v>
@@ -7342,22 +7312,22 @@
         <v>0</v>
       </c>
       <c r="L100" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M100" s="2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N100" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O100" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P100" s="2" t="n">
         <v>3</v>
       </c>
       <c r="Q100" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R100" s="2" t="inlineStr">
         <is>
@@ -7382,13 +7352,13 @@
         </is>
       </c>
       <c r="B101" s="2" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" s="2" t="n">
         <v>0</v>
@@ -7397,10 +7367,10 @@
         <v>1</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H101" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" s="2" t="n">
         <v>1</v>
@@ -7412,22 +7382,22 @@
         <v>0</v>
       </c>
       <c r="L101" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M101" s="2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N101" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O101" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P101" s="2" t="n">
         <v>3</v>
       </c>
       <c r="Q101" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R101" s="2" t="inlineStr">
         <is>
@@ -7452,13 +7422,13 @@
         </is>
       </c>
       <c r="B102" s="2" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" s="2" t="n">
         <v>0</v>
@@ -7467,10 +7437,10 @@
         <v>1</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H102" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" s="2" t="n">
         <v>1</v>
@@ -7482,22 +7452,22 @@
         <v>0</v>
       </c>
       <c r="L102" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M102" s="2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N102" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O102" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P102" s="2" t="n">
         <v>3</v>
       </c>
       <c r="Q102" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R102" s="2" t="inlineStr">
         <is>
@@ -7522,13 +7492,13 @@
         </is>
       </c>
       <c r="B103" s="2" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" s="2" t="n">
         <v>0</v>
@@ -7537,10 +7507,10 @@
         <v>1</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H103" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" s="2" t="n">
         <v>1</v>
@@ -7552,22 +7522,22 @@
         <v>0</v>
       </c>
       <c r="L103" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M103" s="2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N103" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O103" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P103" s="2" t="n">
         <v>3</v>
       </c>
       <c r="Q103" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R103" s="2" t="inlineStr">
         <is>
@@ -7592,13 +7562,13 @@
         </is>
       </c>
       <c r="B104" s="2" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C104" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" s="2" t="n">
         <v>0</v>
@@ -7607,10 +7577,10 @@
         <v>1</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H104" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" s="2" t="n">
         <v>1</v>
@@ -7622,22 +7592,22 @@
         <v>0</v>
       </c>
       <c r="L104" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M104" s="2" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N104" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O104" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P104" s="2" t="n">
         <v>3</v>
       </c>
       <c r="Q104" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R104" s="2" t="inlineStr">
         <is>
@@ -7662,13 +7632,13 @@
         </is>
       </c>
       <c r="B105" s="2" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" s="2" t="n">
         <v>0</v>
@@ -7677,10 +7647,10 @@
         <v>1</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H105" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" s="2" t="n">
         <v>1</v>
@@ -7692,22 +7662,22 @@
         <v>0</v>
       </c>
       <c r="L105" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M105" s="2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N105" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O105" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P105" s="2" t="n">
         <v>3</v>
       </c>
       <c r="Q105" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R105" s="2" t="inlineStr">
         <is>
@@ -7732,13 +7702,13 @@
         </is>
       </c>
       <c r="B106" s="2" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C106" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" s="2" t="n">
         <v>0</v>
@@ -7747,10 +7717,10 @@
         <v>1</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H106" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" s="2" t="n">
         <v>1</v>
@@ -7762,16 +7732,16 @@
         <v>0</v>
       </c>
       <c r="L106" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M106" s="2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N106" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O106" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P106" s="2" t="n">
         <v>3</v>
@@ -7790,6 +7760,356 @@
         </is>
       </c>
       <c r="T106" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M107" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="N107" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q107" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R107" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S107" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T107" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M108" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="N108" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q108" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R108" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S108" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T108" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M109" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="N109" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q109" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R109" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S109" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T109" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M110" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="N110" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q110" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R110" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S110" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T110" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M111" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="N111" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q111" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R111" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S111" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T111" s="2" t="inlineStr">
         <is>
           <t>Original</t>
         </is>
